--- a/SMA - Software Measurement & Analysis/Assignment-07/SMA-TinNguyen-Ass07-ver0.1/Sample_Project_Budget.xlsx
+++ b/SMA - Software Measurement & Analysis/Assignment-07/SMA-TinNguyen-Ass07-ver0.1/Sample_Project_Budget.xlsx
@@ -11,15 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
   <si>
     <t>Sample Project Budget</t>
   </si>
@@ -94,9 +92,6 @@
     <t>Total Operating Expense</t>
   </si>
   <si>
-    <t>Year 2</t>
-  </si>
-  <si>
     <t>Capital Expense</t>
   </si>
   <si>
@@ -196,18 +191,6 @@
     <t>Total Manmonths</t>
   </si>
   <si>
-    <t>Q1 Y2</t>
-  </si>
-  <si>
-    <t>Q2 Y2</t>
-  </si>
-  <si>
-    <t>Q3 Y2</t>
-  </si>
-  <si>
-    <t>Q4 Y2</t>
-  </si>
-  <si>
     <t>Supplies Projection</t>
   </si>
   <si>
@@ -329,6 +312,21 @@
   </si>
   <si>
     <t>Year 3</t>
+  </si>
+  <si>
+    <t>Q4 Y3</t>
+  </si>
+  <si>
+    <t>Q3 Y3</t>
+  </si>
+  <si>
+    <t>Q2 Y3</t>
+  </si>
+  <si>
+    <t>Q1 Y3</t>
+  </si>
+  <si>
+    <t>Year3</t>
   </si>
 </sst>
 </file>
@@ -609,27 +607,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Budget"/>
-      <sheetName val="Expense Assumptions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="C6">
-            <v>0.05</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1061,7 +1038,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1161,14 +1138,14 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="18">
         <v>7245</v>
@@ -1177,7 +1154,7 @@
     <row r="28" spans="1:3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="18">
         <v>6300</v>
@@ -1186,7 +1163,7 @@
     <row r="29" spans="1:3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="19">
         <v>0</v>
@@ -1195,7 +1172,7 @@
     <row r="30" spans="1:3" ht="16.5">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="20">
         <v>2520</v>
@@ -1204,7 +1181,7 @@
     <row r="31" spans="1:3">
       <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="18">
         <v>16065</v>
@@ -1212,10 +1189,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1225,7 +1202,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="25">
         <v>8</v>
@@ -1233,7 +1210,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="23">
         <v>0.75140693392621416</v>
@@ -1241,14 +1218,14 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="27"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="27"/>
       <c r="B39" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>11</v>
@@ -1257,34 +1234,34 @@
         <v>16</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="30" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="I39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="J39" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="K39" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="L39" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="L39" s="30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="27"/>
       <c r="B40" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="33">
         <v>125000</v>
@@ -1296,7 +1273,7 @@
         <v>2500</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G40" s="34">
         <v>3900</v>
@@ -1320,7 +1297,7 @@
     <row r="41" spans="1:12">
       <c r="A41" s="27"/>
       <c r="B41" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="34">
         <v>90000</v>
@@ -1356,7 +1333,7 @@
     <row r="42" spans="1:12">
       <c r="A42" s="27"/>
       <c r="B42" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="34">
         <v>0</v>
@@ -1392,7 +1369,7 @@
     <row r="43" spans="1:12">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="33">
         <v>130000</v>
@@ -1428,7 +1405,7 @@
     <row r="44" spans="1:12">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="34">
         <v>90000</v>
@@ -1464,7 +1441,7 @@
     <row r="45" spans="1:12">
       <c r="A45" s="27"/>
       <c r="B45" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="34">
         <v>55000</v>
@@ -1500,7 +1477,7 @@
     <row r="46" spans="1:12">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="34">
         <v>95000</v>
@@ -1536,7 +1513,7 @@
     <row r="47" spans="1:12">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="34">
         <v>0</v>
@@ -1566,7 +1543,7 @@
     <row r="48" spans="1:12">
       <c r="A48" s="27"/>
       <c r="B48" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="34">
         <v>0</v>
@@ -1596,7 +1573,7 @@
     <row r="49" spans="1:15">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="34">
         <v>0</v>
@@ -1626,7 +1603,7 @@
     <row r="50" spans="1:15">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="34">
         <v>0</v>
@@ -1656,7 +1633,7 @@
     <row r="51" spans="1:15">
       <c r="A51" s="27"/>
       <c r="B51" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="34">
         <v>0</v>
@@ -1685,7 +1662,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="35"/>
       <c r="C53" s="37"/>
@@ -1698,49 +1675,49 @@
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="I54" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="J54" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="K54" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="60" t="s">
+      <c r="L54" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="H54" s="60" t="s">
+      <c r="M54" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="60" t="s">
+      <c r="N54" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="J54" s="60" t="s">
+      <c r="O54" s="60" t="s">
         <v>94</v>
-      </c>
-      <c r="K54" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="L54" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="M54" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="N54" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="O54" s="60" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="35"/>
       <c r="B55" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="61">
         <v>1</v>
@@ -1797,7 +1774,7 @@
     <row r="56" spans="1:15">
       <c r="A56" s="35"/>
       <c r="B56" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="61">
         <v>0</v>
@@ -1854,7 +1831,7 @@
     <row r="57" spans="1:15">
       <c r="A57" s="35"/>
       <c r="B57" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" s="61">
         <v>4</v>
@@ -1909,7 +1886,7 @@
     <row r="58" spans="1:15">
       <c r="A58" s="35"/>
       <c r="B58" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="61">
         <v>3</v>
@@ -1965,7 +1942,7 @@
     <row r="59" spans="1:15">
       <c r="A59" s="35"/>
       <c r="B59" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="61">
         <v>0</v>
@@ -2022,7 +1999,7 @@
     <row r="60" spans="1:15">
       <c r="A60" s="35"/>
       <c r="B60" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="61">
         <v>0</v>
@@ -2079,7 +2056,7 @@
     <row r="61" spans="1:15">
       <c r="A61" s="35"/>
       <c r="B61" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="61">
         <v>0</v>
@@ -2136,7 +2113,7 @@
     <row r="62" spans="1:15">
       <c r="A62" s="35"/>
       <c r="B62" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" s="61">
         <v>0</v>
@@ -2193,7 +2170,7 @@
     <row r="63" spans="1:15">
       <c r="A63" s="35"/>
       <c r="B63" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" s="61">
         <v>0</v>
@@ -2250,7 +2227,7 @@
     <row r="64" spans="1:15">
       <c r="A64" s="35"/>
       <c r="B64" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" s="61">
         <v>0</v>
@@ -2307,7 +2284,7 @@
     <row r="65" spans="1:15">
       <c r="A65" s="35"/>
       <c r="B65" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="61">
         <v>0</v>
@@ -2364,7 +2341,7 @@
     <row r="66" spans="1:15">
       <c r="A66" s="35"/>
       <c r="B66" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" s="61">
         <v>0</v>
@@ -2421,7 +2398,7 @@
     <row r="67" spans="1:15">
       <c r="A67" s="35"/>
       <c r="B67" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="62">
         <v>8</v>
@@ -2466,7 +2443,7 @@
     <row r="68" spans="1:15">
       <c r="A68" s="35"/>
       <c r="B68" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="62">
         <v>8</v>
@@ -2478,7 +2455,7 @@
         <v>8</v>
       </c>
       <c r="F68" s="62">
-        <f t="shared" ref="D68:I68" si="1">F67</f>
+        <f t="shared" ref="F68:I68" si="1">F67</f>
         <v>8</v>
       </c>
       <c r="G68" s="62">
@@ -2520,46 +2497,46 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C70" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G70" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="I70" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="J70" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="F70" s="58" t="s">
+      <c r="K70" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="58" t="s">
+      <c r="L70" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="H70" s="58" t="s">
+      <c r="M70" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I70" s="58" t="s">
+      <c r="N70" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="J70" s="58" t="s">
+      <c r="O70" s="58" t="s">
         <v>94</v>
-      </c>
-      <c r="K70" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="L70" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="M70" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="N70" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="O70" s="58" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -2605,7 +2582,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B73" s="39"/>
     </row>
@@ -2613,25 +2590,25 @@
       <c r="A74" s="40"/>
       <c r="B74" s="40"/>
       <c r="C74" s="41" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="39"/>
       <c r="B75" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="42">
         <v>32812.5</v>
@@ -2652,7 +2629,7 @@
     <row r="76" spans="1:15">
       <c r="A76" s="39"/>
       <c r="B76" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="42">
         <v>0</v>
@@ -2673,7 +2650,7 @@
     <row r="77" spans="1:15">
       <c r="A77" s="39"/>
       <c r="B77" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="42">
         <v>0</v>
@@ -2694,7 +2671,7 @@
     <row r="78" spans="1:15">
       <c r="A78" s="39"/>
       <c r="B78" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="42">
         <v>102375</v>
@@ -2715,7 +2692,7 @@
     <row r="79" spans="1:15">
       <c r="A79" s="39"/>
       <c r="B79" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="42">
         <v>0</v>
@@ -2736,7 +2713,7 @@
     <row r="80" spans="1:15">
       <c r="A80" s="39"/>
       <c r="B80" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" s="42">
         <v>0</v>
@@ -2757,7 +2734,7 @@
     <row r="81" spans="1:7">
       <c r="A81" s="39"/>
       <c r="B81" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C81" s="42">
         <v>0</v>
@@ -2778,7 +2755,7 @@
     <row r="82" spans="1:7">
       <c r="A82" s="39"/>
       <c r="B82" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="42">
         <v>0</v>
@@ -2799,7 +2776,7 @@
     <row r="83" spans="1:7">
       <c r="A83" s="39"/>
       <c r="B83" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83" s="42">
         <v>0</v>
@@ -2820,7 +2797,7 @@
     <row r="84" spans="1:7">
       <c r="A84" s="39"/>
       <c r="B84" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="42">
         <v>0</v>
@@ -2841,7 +2818,7 @@
     <row r="85" spans="1:7">
       <c r="A85" s="39"/>
       <c r="B85" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C85" s="42">
         <v>0</v>
@@ -2862,7 +2839,7 @@
     <row r="86" spans="1:7">
       <c r="A86" s="39"/>
       <c r="B86" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="42">
         <v>0</v>
@@ -2883,7 +2860,7 @@
     <row r="87" spans="1:7">
       <c r="A87" s="39"/>
       <c r="B87" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C87" s="42">
         <f>C75+C78</f>
@@ -2908,7 +2885,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B89" s="43"/>
     </row>
@@ -2916,25 +2893,25 @@
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="45" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F90" s="45" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G90" s="45" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="43"/>
       <c r="B91" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" s="46">
         <v>328.125</v>
@@ -2955,7 +2932,7 @@
     <row r="92" spans="1:7">
       <c r="A92" s="43"/>
       <c r="B92" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" s="46">
         <v>0</v>
@@ -2976,7 +2953,7 @@
     <row r="93" spans="1:7">
       <c r="A93" s="43"/>
       <c r="B93" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" s="46">
         <v>0</v>
@@ -2997,7 +2974,7 @@
     <row r="94" spans="1:7">
       <c r="A94" s="43"/>
       <c r="B94" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" s="46">
         <v>1181.25</v>
@@ -3018,7 +2995,7 @@
     <row r="95" spans="1:7">
       <c r="A95" s="43"/>
       <c r="B95" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C95" s="46">
         <v>0</v>
@@ -3039,7 +3016,7 @@
     <row r="96" spans="1:7">
       <c r="A96" s="43"/>
       <c r="B96" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C96" s="46">
         <v>0</v>
@@ -3060,7 +3037,7 @@
     <row r="97" spans="1:7">
       <c r="A97" s="43"/>
       <c r="B97" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="46">
         <v>0</v>
@@ -3081,7 +3058,7 @@
     <row r="98" spans="1:7">
       <c r="A98" s="43"/>
       <c r="B98" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C98" s="46">
         <v>0</v>
@@ -3102,7 +3079,7 @@
     <row r="99" spans="1:7">
       <c r="A99" s="43"/>
       <c r="B99" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C99" s="46">
         <v>0</v>
@@ -3123,7 +3100,7 @@
     <row r="100" spans="1:7">
       <c r="A100" s="43"/>
       <c r="B100" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C100" s="46">
         <v>0</v>
@@ -3144,7 +3121,7 @@
     <row r="101" spans="1:7">
       <c r="A101" s="43"/>
       <c r="B101" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C101" s="46">
         <v>0</v>
@@ -3165,7 +3142,7 @@
     <row r="102" spans="1:7">
       <c r="A102" s="43"/>
       <c r="B102" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" s="46">
         <v>0</v>
@@ -3186,7 +3163,7 @@
     <row r="103" spans="1:7">
       <c r="A103" s="43"/>
       <c r="B103" s="43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C103" s="46">
         <f>C91+C94</f>
@@ -3211,7 +3188,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B105" s="47"/>
     </row>
@@ -3219,22 +3196,25 @@
       <c r="A106" s="48"/>
       <c r="B106" s="48"/>
       <c r="C106" s="49" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D106" s="49" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E106" s="49" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F106" s="49" t="s">
-        <v>58</v>
+        <v>95</v>
+      </c>
+      <c r="G106" s="60" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="47"/>
       <c r="B107" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" s="50">
         <v>656.25</v>
@@ -3247,12 +3227,16 @@
       </c>
       <c r="F107" s="50">
         <v>656.25</v>
+      </c>
+      <c r="G107" s="63">
+        <f t="shared" ref="G107:G118" si="2">SUM(C107:F107)</f>
+        <v>2625</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="47"/>
       <c r="B108" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C108" s="50">
         <v>0</v>
@@ -3264,13 +3248,17 @@
         <v>0</v>
       </c>
       <c r="F108" s="50">
+        <v>0</v>
+      </c>
+      <c r="G108" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="47"/>
       <c r="B109" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C109" s="50">
         <v>0</v>
@@ -3282,13 +3270,17 @@
         <v>0</v>
       </c>
       <c r="F109" s="50">
+        <v>0</v>
+      </c>
+      <c r="G109" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="47"/>
       <c r="B110" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110" s="50">
         <v>787.5</v>
@@ -3301,12 +3293,16 @@
       </c>
       <c r="F110" s="50">
         <v>787.5</v>
+      </c>
+      <c r="G110" s="63">
+        <f t="shared" si="2"/>
+        <v>3150</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="47"/>
       <c r="B111" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C111" s="50">
         <v>0</v>
@@ -3318,13 +3314,17 @@
         <v>0</v>
       </c>
       <c r="F111" s="50">
+        <v>0</v>
+      </c>
+      <c r="G111" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="47"/>
       <c r="B112" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C112" s="50">
         <v>0</v>
@@ -3336,13 +3336,17 @@
         <v>0</v>
       </c>
       <c r="F112" s="50">
+        <v>0</v>
+      </c>
+      <c r="G112" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="47"/>
       <c r="B113" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C113" s="50">
         <v>0</v>
@@ -3354,13 +3358,17 @@
         <v>0</v>
       </c>
       <c r="F113" s="50">
+        <v>0</v>
+      </c>
+      <c r="G113" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="47"/>
       <c r="B114" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114" s="50">
         <v>0</v>
@@ -3372,13 +3380,17 @@
         <v>0</v>
       </c>
       <c r="F114" s="50">
+        <v>0</v>
+      </c>
+      <c r="G114" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="47"/>
       <c r="B115" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C115" s="50">
         <v>0</v>
@@ -3390,13 +3402,17 @@
         <v>0</v>
       </c>
       <c r="F115" s="50">
+        <v>0</v>
+      </c>
+      <c r="G115" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="47"/>
       <c r="B116" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C116" s="50">
         <v>0</v>
@@ -3408,13 +3424,17 @@
         <v>0</v>
       </c>
       <c r="F116" s="50">
+        <v>0</v>
+      </c>
+      <c r="G116" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="47"/>
       <c r="B117" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C117" s="50">
         <v>0</v>
@@ -3426,13 +3446,17 @@
         <v>0</v>
       </c>
       <c r="F117" s="50">
+        <v>0</v>
+      </c>
+      <c r="G117" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="47"/>
       <c r="B118" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C118" s="50">
         <v>0</v>
@@ -3444,13 +3468,17 @@
         <v>0</v>
       </c>
       <c r="F118" s="50">
+        <v>0</v>
+      </c>
+      <c r="G118" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="47"/>
       <c r="B119" s="47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C119" s="50">
         <f>C107+C110</f>
@@ -3468,10 +3496,14 @@
         <f>F107+F110</f>
         <v>1443.75</v>
       </c>
+      <c r="G119" s="63">
+        <f t="shared" ref="G119" si="3">SUM(G107:G118)</f>
+        <v>5775</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B121" s="51"/>
     </row>
@@ -3479,25 +3511,25 @@
       <c r="A122" s="52"/>
       <c r="B122" s="52"/>
       <c r="C122" s="60" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D122" s="60" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E122" s="60" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F122" s="60" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G122" s="60" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="51"/>
       <c r="B123" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C123" s="63">
         <v>3071.25</v>
@@ -3518,318 +3550,274 @@
     <row r="124" spans="1:7">
       <c r="A124" s="51"/>
       <c r="B124" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C124" s="63">
-        <f>(($F41*(1+'[1]Expense Assumptions'!$C$6))*C56)/4</f>
         <v>0</v>
       </c>
       <c r="D124" s="63">
-        <f>(($F41*(1+'[1]Expense Assumptions'!$C$6))*D56)/4</f>
         <v>0</v>
       </c>
       <c r="E124" s="63">
-        <f>(($F41*(1+'[1]Expense Assumptions'!$C$6))*E56)/4</f>
         <v>0</v>
       </c>
       <c r="F124" s="63">
-        <f>(($F41*(1+'[1]Expense Assumptions'!$C$6))*F56)/4</f>
         <v>0</v>
       </c>
       <c r="G124" s="63">
-        <f t="shared" ref="G123:G134" si="2">SUM(C124:F124)</f>
+        <f t="shared" ref="G124:G134" si="4">SUM(C124:F124)</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="51"/>
       <c r="B125" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C125" s="63">
-        <f>(($F42*(1+'[1]Expense Assumptions'!$C$6))*C57)/4</f>
         <v>0</v>
       </c>
       <c r="D125" s="63">
-        <f>(($F42*(1+'[1]Expense Assumptions'!$C$6))*D57)/4</f>
         <v>0</v>
       </c>
       <c r="E125" s="63">
-        <f>(($F42*(1+'[1]Expense Assumptions'!$C$6))*E57)/4</f>
         <v>0</v>
       </c>
       <c r="F125" s="63">
-        <f>(($F42*(1+'[1]Expense Assumptions'!$C$6))*F57)/4</f>
         <v>0</v>
       </c>
       <c r="G125" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="51"/>
       <c r="B126" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126" s="63">
-        <f>(($F43*(1+'[1]Expense Assumptions'!$C$6))*C58)/4</f>
         <v>787.5</v>
       </c>
       <c r="D126" s="63">
-        <f>(($F43*(1+'[1]Expense Assumptions'!$C$6))*D58)/4</f>
         <v>787.5</v>
       </c>
       <c r="E126" s="63">
-        <f>(($F43*(1+'[1]Expense Assumptions'!$C$6))*E58)/4</f>
         <v>787.5</v>
       </c>
       <c r="F126" s="63">
-        <f>(($F43*(1+'[1]Expense Assumptions'!$C$6))*F58)/4</f>
         <v>787.5</v>
       </c>
       <c r="G126" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3150</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="51"/>
       <c r="B127" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C127" s="63">
-        <f>(($F44*(1+'[1]Expense Assumptions'!$C$6))*C59)/4</f>
         <v>0</v>
       </c>
       <c r="D127" s="63">
-        <f>(($F44*(1+'[1]Expense Assumptions'!$C$6))*D59)/4</f>
         <v>0</v>
       </c>
       <c r="E127" s="63">
-        <f>(($F44*(1+'[1]Expense Assumptions'!$C$6))*E59)/4</f>
         <v>0</v>
       </c>
       <c r="F127" s="63">
-        <f>(($F44*(1+'[1]Expense Assumptions'!$C$6))*F59)/4</f>
         <v>0</v>
       </c>
       <c r="G127" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="51"/>
       <c r="B128" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C128" s="63">
-        <f>(($F45*(1+'[1]Expense Assumptions'!$C$6))*C60)/4</f>
         <v>0</v>
       </c>
       <c r="D128" s="63">
-        <f>(($F45*(1+'[1]Expense Assumptions'!$C$6))*D60)/4</f>
         <v>0</v>
       </c>
       <c r="E128" s="63">
-        <f>(($F45*(1+'[1]Expense Assumptions'!$C$6))*E60)/4</f>
         <v>0</v>
       </c>
       <c r="F128" s="63">
-        <f>(($F45*(1+'[1]Expense Assumptions'!$C$6))*F60)/4</f>
         <v>0</v>
       </c>
       <c r="G128" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="51"/>
       <c r="B129" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C129" s="63">
-        <f>(($F46*(1+'[1]Expense Assumptions'!$C$6))*C61)/4</f>
         <v>0</v>
       </c>
       <c r="D129" s="63">
-        <f>(($F46*(1+'[1]Expense Assumptions'!$C$6))*D61)/4</f>
         <v>0</v>
       </c>
       <c r="E129" s="63">
-        <f>(($F46*(1+'[1]Expense Assumptions'!$C$6))*E61)/4</f>
         <v>0</v>
       </c>
       <c r="F129" s="63">
-        <f>(($F46*(1+'[1]Expense Assumptions'!$C$6))*F61)/4</f>
         <v>0</v>
       </c>
       <c r="G129" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="51"/>
       <c r="B130" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C130" s="63">
-        <f>(($F47*(1+'[1]Expense Assumptions'!$C$6))*C62)/4</f>
         <v>0</v>
       </c>
       <c r="D130" s="63">
-        <f>(($F47*(1+'[1]Expense Assumptions'!$C$6))*D62)/4</f>
         <v>0</v>
       </c>
       <c r="E130" s="63">
-        <f>(($F47*(1+'[1]Expense Assumptions'!$C$6))*E62)/4</f>
         <v>0</v>
       </c>
       <c r="F130" s="63">
-        <f>(($F47*(1+'[1]Expense Assumptions'!$C$6))*F62)/4</f>
         <v>0</v>
       </c>
       <c r="G130" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="51"/>
       <c r="B131" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C131" s="63">
-        <f>(($F48*(1+'[1]Expense Assumptions'!$C$6))*C63)/4</f>
         <v>0</v>
       </c>
       <c r="D131" s="63">
-        <f>(($F48*(1+'[1]Expense Assumptions'!$C$6))*D63)/4</f>
         <v>0</v>
       </c>
       <c r="E131" s="63">
-        <f>(($F48*(1+'[1]Expense Assumptions'!$C$6))*E63)/4</f>
         <v>0</v>
       </c>
       <c r="F131" s="63">
-        <f>(($F48*(1+'[1]Expense Assumptions'!$C$6))*F63)/4</f>
         <v>0</v>
       </c>
       <c r="G131" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="51"/>
       <c r="B132" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C132" s="63">
-        <f>(($F49*(1+'[1]Expense Assumptions'!$C$6))*C64)/4</f>
         <v>0</v>
       </c>
       <c r="D132" s="63">
-        <f>(($F49*(1+'[1]Expense Assumptions'!$C$6))*D64)/4</f>
         <v>0</v>
       </c>
       <c r="E132" s="63">
-        <f>(($F49*(1+'[1]Expense Assumptions'!$C$6))*E64)/4</f>
         <v>0</v>
       </c>
       <c r="F132" s="63">
-        <f>(($F49*(1+'[1]Expense Assumptions'!$C$6))*F64)/4</f>
         <v>0</v>
       </c>
       <c r="G132" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="51"/>
       <c r="B133" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C133" s="63">
-        <f>(($F50*(1+'[1]Expense Assumptions'!$C$6))*C65)/4</f>
         <v>0</v>
       </c>
       <c r="D133" s="63">
-        <f>(($F50*(1+'[1]Expense Assumptions'!$C$6))*D65)/4</f>
         <v>0</v>
       </c>
       <c r="E133" s="63">
-        <f>(($F50*(1+'[1]Expense Assumptions'!$C$6))*E65)/4</f>
         <v>0</v>
       </c>
       <c r="F133" s="63">
-        <f>(($F50*(1+'[1]Expense Assumptions'!$C$6))*F65)/4</f>
         <v>0</v>
       </c>
       <c r="G133" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="51"/>
       <c r="B134" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C134" s="63">
-        <f>(($F51*(1+'[1]Expense Assumptions'!$C$6))*C66)/4</f>
         <v>0</v>
       </c>
       <c r="D134" s="63">
-        <f>(($F51*(1+'[1]Expense Assumptions'!$C$6))*D66)/4</f>
         <v>0</v>
       </c>
       <c r="E134" s="63">
-        <f>(($F51*(1+'[1]Expense Assumptions'!$C$6))*E66)/4</f>
         <v>0</v>
       </c>
       <c r="F134" s="63">
-        <f>(($F51*(1+'[1]Expense Assumptions'!$C$6))*F66)/4</f>
         <v>0</v>
       </c>
       <c r="G134" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="51"/>
       <c r="B135" s="51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C135" s="63">
         <f>SUM(C123:C134)</f>
         <v>3858.75</v>
       </c>
       <c r="D135" s="63">
-        <f t="shared" ref="C135:G135" si="3">SUM(D123:D134)</f>
+        <f t="shared" ref="D135:G135" si="5">SUM(D123:D134)</f>
         <v>3858.75</v>
       </c>
       <c r="E135" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3858.75</v>
       </c>
       <c r="F135" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3858.75</v>
       </c>
       <c r="G135" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15435</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="53" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B137" s="53"/>
     </row>
@@ -3837,362 +3825,314 @@
       <c r="A138" s="54"/>
       <c r="B138" s="54"/>
       <c r="C138" s="60" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D138" s="60" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E138" s="60" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F138" s="60" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G138" s="60" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="53"/>
       <c r="B139" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C139" s="63">
-        <f>(($G40*(1+'[1]Expense Assumptions'!$C$6))*C55)/4</f>
         <v>1023.75</v>
       </c>
       <c r="D139" s="63">
-        <f>(($G40*(1+'[1]Expense Assumptions'!$C$6))*D55)/4</f>
         <v>1023.75</v>
       </c>
       <c r="E139" s="63">
-        <f>(($G40*(1+'[1]Expense Assumptions'!$C$6))*E55)/4</f>
         <v>1023.75</v>
       </c>
       <c r="F139" s="63">
-        <f>(($G40*(1+'[1]Expense Assumptions'!$C$6))*F55)/4</f>
         <v>1023.75</v>
       </c>
       <c r="G139" s="64">
-        <f t="shared" ref="G139:G150" si="4">SUM(C139:F139)</f>
+        <f t="shared" ref="G139:G150" si="6">SUM(C139:F139)</f>
         <v>4095</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="53"/>
       <c r="B140" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C140" s="63">
-        <f>(($G41*(1+'[1]Expense Assumptions'!$C$6))*C56)/4</f>
         <v>0</v>
       </c>
       <c r="D140" s="63">
-        <f>(($G41*(1+'[1]Expense Assumptions'!$C$6))*D56)/4</f>
         <v>0</v>
       </c>
       <c r="E140" s="63">
-        <f>(($G41*(1+'[1]Expense Assumptions'!$C$6))*E56)/4</f>
         <v>0</v>
       </c>
       <c r="F140" s="63">
-        <f>(($G41*(1+'[1]Expense Assumptions'!$C$6))*F56)/4</f>
         <v>0</v>
       </c>
       <c r="G140" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="53"/>
       <c r="B141" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C141" s="63">
-        <f>(($G42*(1+'[1]Expense Assumptions'!$C$6))*C57)/4</f>
         <v>0</v>
       </c>
       <c r="D141" s="63">
-        <f>(($G42*(1+'[1]Expense Assumptions'!$C$6))*D57)/4</f>
         <v>0</v>
       </c>
       <c r="E141" s="63">
-        <f>(($G42*(1+'[1]Expense Assumptions'!$C$6))*E57)/4</f>
         <v>0</v>
       </c>
       <c r="F141" s="63">
-        <f>(($G42*(1+'[1]Expense Assumptions'!$C$6))*F57)/4</f>
         <v>0</v>
       </c>
       <c r="G141" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="53"/>
       <c r="B142" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C142" s="63">
-        <f>(($G43*(1+'[1]Expense Assumptions'!$C$6))*C58)/4</f>
         <v>787.5</v>
       </c>
       <c r="D142" s="63">
-        <f>(($G43*(1+'[1]Expense Assumptions'!$C$6))*D58)/4</f>
         <v>787.5</v>
       </c>
       <c r="E142" s="63">
-        <f>(($G43*(1+'[1]Expense Assumptions'!$C$6))*E58)/4</f>
         <v>787.5</v>
       </c>
       <c r="F142" s="63">
-        <f>(($G43*(1+'[1]Expense Assumptions'!$C$6))*F58)/4</f>
         <v>787.5</v>
       </c>
       <c r="G142" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3150</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="53"/>
       <c r="B143" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C143" s="63">
-        <f>(($G44*(1+'[1]Expense Assumptions'!$C$6))*C59)/4</f>
         <v>0</v>
       </c>
       <c r="D143" s="63">
-        <f>(($G44*(1+'[1]Expense Assumptions'!$C$6))*D59)/4</f>
         <v>0</v>
       </c>
       <c r="E143" s="63">
-        <f>(($G44*(1+'[1]Expense Assumptions'!$C$6))*E59)/4</f>
         <v>0</v>
       </c>
       <c r="F143" s="63">
-        <f>(($G44*(1+'[1]Expense Assumptions'!$C$6))*F59)/4</f>
         <v>0</v>
       </c>
       <c r="G143" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="53"/>
       <c r="B144" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C144" s="63">
-        <f>(($G45*(1+'[1]Expense Assumptions'!$C$6))*C60)/4</f>
         <v>0</v>
       </c>
       <c r="D144" s="63">
-        <f>(($G45*(1+'[1]Expense Assumptions'!$C$6))*D60)/4</f>
         <v>0</v>
       </c>
       <c r="E144" s="63">
-        <f>(($G45*(1+'[1]Expense Assumptions'!$C$6))*E60)/4</f>
         <v>0</v>
       </c>
       <c r="F144" s="63">
-        <f>(($G45*(1+'[1]Expense Assumptions'!$C$6))*F60)/4</f>
         <v>0</v>
       </c>
       <c r="G144" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="53"/>
       <c r="B145" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C145" s="63">
-        <f>(($G46*(1+'[1]Expense Assumptions'!$C$6))*C61)/4</f>
         <v>0</v>
       </c>
       <c r="D145" s="63">
-        <f>(($G46*(1+'[1]Expense Assumptions'!$C$6))*D61)/4</f>
         <v>0</v>
       </c>
       <c r="E145" s="63">
-        <f>(($G46*(1+'[1]Expense Assumptions'!$C$6))*E61)/4</f>
         <v>0</v>
       </c>
       <c r="F145" s="63">
-        <f>(($G46*(1+'[1]Expense Assumptions'!$C$6))*F61)/4</f>
         <v>0</v>
       </c>
       <c r="G145" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="53"/>
       <c r="B146" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C146" s="63">
-        <f>(($G47*(1+'[1]Expense Assumptions'!$C$6))*C62)/4</f>
         <v>0</v>
       </c>
       <c r="D146" s="63">
-        <f>(($G47*(1+'[1]Expense Assumptions'!$C$6))*D62)/4</f>
         <v>0</v>
       </c>
       <c r="E146" s="63">
-        <f>(($G47*(1+'[1]Expense Assumptions'!$C$6))*E62)/4</f>
         <v>0</v>
       </c>
       <c r="F146" s="63">
-        <f>(($G47*(1+'[1]Expense Assumptions'!$C$6))*F62)/4</f>
         <v>0</v>
       </c>
       <c r="G146" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="53"/>
       <c r="B147" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C147" s="63">
-        <f>(($G48*(1+'[1]Expense Assumptions'!$C$6))*C63)/4</f>
         <v>0</v>
       </c>
       <c r="D147" s="63">
-        <f>(($G48*(1+'[1]Expense Assumptions'!$C$6))*D63)/4</f>
         <v>0</v>
       </c>
       <c r="E147" s="63">
-        <f>(($G48*(1+'[1]Expense Assumptions'!$C$6))*E63)/4</f>
         <v>0</v>
       </c>
       <c r="F147" s="63">
-        <f>(($G48*(1+'[1]Expense Assumptions'!$C$6))*F63)/4</f>
         <v>0</v>
       </c>
       <c r="G147" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="53"/>
       <c r="B148" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C148" s="63">
-        <f>(($G49*(1+'[1]Expense Assumptions'!$C$6))*C64)/4</f>
         <v>0</v>
       </c>
       <c r="D148" s="63">
-        <f>(($G49*(1+'[1]Expense Assumptions'!$C$6))*D64)/4</f>
         <v>0</v>
       </c>
       <c r="E148" s="63">
-        <f>(($G49*(1+'[1]Expense Assumptions'!$C$6))*E64)/4</f>
         <v>0</v>
       </c>
       <c r="F148" s="63">
-        <f>(($G49*(1+'[1]Expense Assumptions'!$C$6))*F64)/4</f>
         <v>0</v>
       </c>
       <c r="G148" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="53"/>
       <c r="B149" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C149" s="63">
-        <f>(($G50*(1+'[1]Expense Assumptions'!$C$6))*C65)/4</f>
         <v>0</v>
       </c>
       <c r="D149" s="63">
-        <f>(($G50*(1+'[1]Expense Assumptions'!$C$6))*D65)/4</f>
         <v>0</v>
       </c>
       <c r="E149" s="63">
-        <f>(($G50*(1+'[1]Expense Assumptions'!$C$6))*E65)/4</f>
         <v>0</v>
       </c>
       <c r="F149" s="63">
-        <f>(($G50*(1+'[1]Expense Assumptions'!$C$6))*F65)/4</f>
         <v>0</v>
       </c>
       <c r="G149" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="53"/>
       <c r="B150" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C150" s="63">
-        <f>(($G51*(1+'[1]Expense Assumptions'!$C$6))*C66)/4</f>
         <v>0</v>
       </c>
       <c r="D150" s="63">
-        <f>(($G51*(1+'[1]Expense Assumptions'!$C$6))*D66)/4</f>
         <v>0</v>
       </c>
       <c r="E150" s="63">
-        <f>(($G51*(1+'[1]Expense Assumptions'!$C$6))*E66)/4</f>
         <v>0</v>
       </c>
       <c r="F150" s="63">
-        <f>(($G51*(1+'[1]Expense Assumptions'!$C$6))*F66)/4</f>
         <v>0</v>
       </c>
       <c r="G150" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="53"/>
       <c r="B151" s="53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C151" s="64">
-        <f t="shared" ref="C151:G151" si="5">SUM(C139:C150)</f>
+        <f t="shared" ref="C151:G151" si="7">SUM(C139:C150)</f>
         <v>1811.25</v>
       </c>
       <c r="D151" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1811.25</v>
       </c>
       <c r="E151" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1811.25</v>
       </c>
       <c r="F151" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1811.25</v>
       </c>
       <c r="G151" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7245</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="55" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B153" s="55"/>
     </row>
@@ -4200,371 +4140,323 @@
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="60" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D154" s="60" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E154" s="60" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F154" s="60" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G154" s="60" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="55"/>
       <c r="B155" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C155" s="63">
-        <f>(($H40*(1+'[1]Expense Assumptions'!$C$6))*C55)/4</f>
         <v>787.5</v>
       </c>
       <c r="D155" s="63">
-        <f>(($H40*(1+'[1]Expense Assumptions'!$C$6))*D55)/4</f>
         <v>787.5</v>
       </c>
       <c r="E155" s="63">
-        <f>(($H40*(1+'[1]Expense Assumptions'!$C$6))*E55)/4</f>
         <v>787.5</v>
       </c>
       <c r="F155" s="63">
-        <f>(($H40*(1+'[1]Expense Assumptions'!$C$6))*F55)/4</f>
         <v>787.5</v>
       </c>
       <c r="G155" s="63">
-        <f t="shared" ref="G155:G167" si="6">SUM(C155:F155)</f>
+        <f t="shared" ref="G155:G167" si="8">SUM(C155:F155)</f>
         <v>3150</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="55"/>
       <c r="B156" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C156" s="63">
-        <f>(($H41*(1+'[1]Expense Assumptions'!$C$6))*C56)/4</f>
         <v>0</v>
       </c>
       <c r="D156" s="63">
-        <f>(($H41*(1+'[1]Expense Assumptions'!$C$6))*D56)/4</f>
         <v>0</v>
       </c>
       <c r="E156" s="63">
-        <f>(($H41*(1+'[1]Expense Assumptions'!$C$6))*E56)/4</f>
         <v>0</v>
       </c>
       <c r="F156" s="63">
-        <f>(($H41*(1+'[1]Expense Assumptions'!$C$6))*F56)/4</f>
         <v>0</v>
       </c>
       <c r="G156" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="55"/>
       <c r="B157" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C157" s="63">
-        <f>(($H42*(1+'[1]Expense Assumptions'!$C$6))*C57)/4</f>
         <v>0</v>
       </c>
       <c r="D157" s="63">
-        <f>(($H42*(1+'[1]Expense Assumptions'!$C$6))*D57)/4</f>
         <v>0</v>
       </c>
       <c r="E157" s="63">
-        <f>(($H42*(1+'[1]Expense Assumptions'!$C$6))*E57)/4</f>
         <v>0</v>
       </c>
       <c r="F157" s="63">
-        <f>(($H42*(1+'[1]Expense Assumptions'!$C$6))*F57)/4</f>
         <v>0</v>
       </c>
       <c r="G157" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="55"/>
       <c r="B158" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" s="63">
-        <f>(($H43*(1+'[1]Expense Assumptions'!$C$6))*C58)/4</f>
         <v>787.5</v>
       </c>
       <c r="D158" s="63">
-        <f>(($H43*(1+'[1]Expense Assumptions'!$C$6))*D58)/4</f>
         <v>787.5</v>
       </c>
       <c r="E158" s="63">
-        <f>(($H43*(1+'[1]Expense Assumptions'!$C$6))*E58)/4</f>
         <v>787.5</v>
       </c>
       <c r="F158" s="63">
-        <f>(($H43*(1+'[1]Expense Assumptions'!$C$6))*F58)/4</f>
         <v>787.5</v>
       </c>
       <c r="G158" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3150</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="55"/>
       <c r="B159" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C159" s="63">
-        <f>(($H44*(1+'[1]Expense Assumptions'!$C$6))*C59)/4</f>
         <v>0</v>
       </c>
       <c r="D159" s="63">
-        <f>(($H44*(1+'[1]Expense Assumptions'!$C$6))*D59)/4</f>
         <v>0</v>
       </c>
       <c r="E159" s="63">
-        <f>(($H44*(1+'[1]Expense Assumptions'!$C$6))*E59)/4</f>
         <v>0</v>
       </c>
       <c r="F159" s="63">
-        <f>(($H44*(1+'[1]Expense Assumptions'!$C$6))*F59)/4</f>
         <v>0</v>
       </c>
       <c r="G159" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="55"/>
       <c r="B160" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C160" s="63">
-        <f>(($H45*(1+'[1]Expense Assumptions'!$C$6))*C60)/4</f>
         <v>0</v>
       </c>
       <c r="D160" s="63">
-        <f>(($H45*(1+'[1]Expense Assumptions'!$C$6))*D60)/4</f>
         <v>0</v>
       </c>
       <c r="E160" s="63">
-        <f>(($H45*(1+'[1]Expense Assumptions'!$C$6))*E60)/4</f>
         <v>0</v>
       </c>
       <c r="F160" s="63">
-        <f>(($H45*(1+'[1]Expense Assumptions'!$C$6))*F60)/4</f>
         <v>0</v>
       </c>
       <c r="G160" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="55"/>
       <c r="B161" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C161" s="63">
-        <f>(($H46*(1+'[1]Expense Assumptions'!$C$6))*C61)/4</f>
         <v>0</v>
       </c>
       <c r="D161" s="63">
-        <f>(($H46*(1+'[1]Expense Assumptions'!$C$6))*D61)/4</f>
         <v>0</v>
       </c>
       <c r="E161" s="63">
-        <f>(($H46*(1+'[1]Expense Assumptions'!$C$6))*E61)/4</f>
         <v>0</v>
       </c>
       <c r="F161" s="63">
-        <f>(($H46*(1+'[1]Expense Assumptions'!$C$6))*F61)/4</f>
         <v>0</v>
       </c>
       <c r="G161" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="55"/>
       <c r="B162" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C162" s="63">
-        <f>(($H47*(1+'[1]Expense Assumptions'!$C$6))*C62)/4</f>
         <v>0</v>
       </c>
       <c r="D162" s="63">
-        <f>(($H47*(1+'[1]Expense Assumptions'!$C$6))*D62)/4</f>
         <v>0</v>
       </c>
       <c r="E162" s="63">
-        <f>(($H47*(1+'[1]Expense Assumptions'!$C$6))*E62)/4</f>
         <v>0</v>
       </c>
       <c r="F162" s="63">
-        <f>(($H47*(1+'[1]Expense Assumptions'!$C$6))*F62)/4</f>
         <v>0</v>
       </c>
       <c r="G162" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="55"/>
       <c r="B163" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C163" s="63">
-        <f>(($H48*(1+'[1]Expense Assumptions'!$C$6))*C63)/4</f>
         <v>0</v>
       </c>
       <c r="D163" s="63">
-        <f>(($H48*(1+'[1]Expense Assumptions'!$C$6))*D63)/4</f>
         <v>0</v>
       </c>
       <c r="E163" s="63">
-        <f>(($H48*(1+'[1]Expense Assumptions'!$C$6))*E63)/4</f>
         <v>0</v>
       </c>
       <c r="F163" s="63">
-        <f>(($H48*(1+'[1]Expense Assumptions'!$C$6))*F63)/4</f>
         <v>0</v>
       </c>
       <c r="G163" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="55"/>
       <c r="B164" s="55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C164" s="63">
-        <f>(($H49*(1+'[1]Expense Assumptions'!$C$6))*C64)/4</f>
         <v>0</v>
       </c>
       <c r="D164" s="63">
-        <f>(($H49*(1+'[1]Expense Assumptions'!$C$6))*D64)/4</f>
         <v>0</v>
       </c>
       <c r="E164" s="63">
-        <f>(($H49*(1+'[1]Expense Assumptions'!$C$6))*E64)/4</f>
         <v>0</v>
       </c>
       <c r="F164" s="63">
-        <f>(($H49*(1+'[1]Expense Assumptions'!$C$6))*F64)/4</f>
         <v>0</v>
       </c>
       <c r="G164" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="55"/>
       <c r="B165" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C165" s="63">
-        <f>(($H50*(1+'[1]Expense Assumptions'!$C$6))*C65)/4</f>
         <v>0</v>
       </c>
       <c r="D165" s="63">
-        <f>(($H50*(1+'[1]Expense Assumptions'!$C$6))*D65)/4</f>
         <v>0</v>
       </c>
       <c r="E165" s="63">
-        <f>(($H50*(1+'[1]Expense Assumptions'!$C$6))*E65)/4</f>
         <v>0</v>
       </c>
       <c r="F165" s="63">
-        <f>(($H50*(1+'[1]Expense Assumptions'!$C$6))*F65)/4</f>
         <v>0</v>
       </c>
       <c r="G165" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="55"/>
       <c r="B166" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C166" s="63">
-        <f>(($H51*(1+'[1]Expense Assumptions'!$C$6))*C66)/4</f>
         <v>0</v>
       </c>
       <c r="D166" s="63">
-        <f>(($H51*(1+'[1]Expense Assumptions'!$C$6))*D66)/4</f>
         <v>0</v>
       </c>
       <c r="E166" s="63">
-        <f>(($H51*(1+'[1]Expense Assumptions'!$C$6))*E66)/4</f>
         <v>0</v>
       </c>
       <c r="F166" s="63">
-        <f>(($H51*(1+'[1]Expense Assumptions'!$C$6))*F66)/4</f>
         <v>0</v>
       </c>
       <c r="G166" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="55"/>
       <c r="B167" s="55" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C167" s="63">
-        <f t="shared" ref="C167:G167" si="7">SUM(C155:C166)</f>
+        <f t="shared" ref="C167:F167" si="9">SUM(C155:C166)</f>
         <v>1575</v>
       </c>
       <c r="D167" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1575</v>
       </c>
       <c r="E167" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1575</v>
       </c>
       <c r="F167" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1575</v>
       </c>
       <c r="G167" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6300</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="B175" s="57"/>
       <c r="C175" s="57" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D175" s="57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="B176" s="57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C176" s="57">
         <v>1</v>
@@ -4575,7 +4467,7 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C177" s="57">
         <v>1</v>
@@ -4586,7 +4478,7 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" s="57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C178" s="57">
         <v>1</v>
@@ -4597,7 +4489,7 @@
     </row>
     <row r="179" spans="2:4">
       <c r="B179" s="57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C179" s="57">
         <v>3</v>
@@ -4608,7 +4500,7 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" s="57" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C180" s="57">
         <v>1</v>
@@ -4619,7 +4511,7 @@
     </row>
     <row r="181" spans="2:4">
       <c r="B181" s="57" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C181" s="57">
         <v>1</v>
@@ -4630,7 +4522,7 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" s="57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C182" s="57">
         <v>1</v>
@@ -4641,7 +4533,7 @@
     </row>
     <row r="183" spans="2:4">
       <c r="B183" s="57" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C183" s="57">
         <v>1</v>
@@ -4652,7 +4544,7 @@
     </row>
     <row r="184" spans="2:4">
       <c r="B184" s="57" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C184" s="57">
         <v>1</v>
@@ -4663,7 +4555,7 @@
     </row>
     <row r="185" spans="2:4">
       <c r="B185" s="57" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C185" s="57">
         <v>1</v>
@@ -4674,7 +4566,7 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" s="57" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C186" s="57">
         <v>4</v>
@@ -4685,7 +4577,7 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" s="57" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C187" s="57">
         <v>1</v>
@@ -4696,7 +4588,7 @@
     </row>
     <row r="188" spans="2:4">
       <c r="B188" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C188" s="57">
         <v>2</v>
